--- a/src/LifeCycleInventoryModel_Li/sensitivity_values.xlsx
+++ b/src/LifeCycleInventoryModel_Li/sensitivity_values.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="197">
   <si>
     <t>Constant</t>
   </si>
@@ -134,12 +134,51 @@
     <t>T_Liprec</t>
   </si>
   <si>
-    <t>T_deion1</t>
-  </si>
-  <si>
     <t>T_dissol</t>
   </si>
   <si>
+    <t>T_boron</t>
+  </si>
+  <si>
+    <t>T_Mg_soda</t>
+  </si>
+  <si>
+    <t>T_motherliq</t>
+  </si>
+  <si>
+    <t>Li_out_RO</t>
+  </si>
+  <si>
+    <t>Li_in_RO</t>
+  </si>
+  <si>
+    <t>Li_out_evaporator_geothermal</t>
+  </si>
+  <si>
+    <t>pH_ini</t>
+  </si>
+  <si>
+    <t>pH_aft</t>
+  </si>
+  <si>
+    <t>Mg_conc_pulp_quicklime</t>
+  </si>
+  <si>
+    <t>Ca_left_over</t>
+  </si>
+  <si>
+    <t>motherliq_factor</t>
+  </si>
+  <si>
+    <t>CO2_factor</t>
+  </si>
+  <si>
+    <t>washing_factor</t>
+  </si>
+  <si>
+    <t>sodaash_solution</t>
+  </si>
+  <si>
     <t>T_RO</t>
   </si>
   <si>
@@ -152,37 +191,22 @@
     <t>T_adsorp</t>
   </si>
   <si>
-    <t>T_boron</t>
-  </si>
-  <si>
-    <t>T_Mg_soda</t>
-  </si>
-  <si>
-    <t>T_motherliq</t>
-  </si>
-  <si>
     <t>T_nano</t>
   </si>
   <si>
     <t>T_IX</t>
   </si>
   <si>
-    <t>adsorp_capacity</t>
-  </si>
-  <si>
-    <t>adsorb_capacity_salar</t>
-  </si>
-  <si>
     <t>Li_out_adsorb</t>
   </si>
   <si>
-    <t>Li_out_RO</t>
-  </si>
-  <si>
-    <t>Li_in_RO</t>
-  </si>
-  <si>
-    <t>Li_out_evaporator_geothermal</t>
+    <t>T_ED</t>
+  </si>
+  <si>
+    <t>adsorp_capacity_geothermal</t>
+  </si>
+  <si>
+    <t>adsorp_capacity_salar</t>
   </si>
   <si>
     <t>Li_out_EP_DLE</t>
@@ -194,6 +218,111 @@
     <t>heat_loss</t>
   </si>
   <si>
+    <t>recycling_rate</t>
+  </si>
+  <si>
+    <t>BWI_grinding</t>
+  </si>
+  <si>
+    <t>initial_size_grinding</t>
+  </si>
+  <si>
+    <t>final_size_grinding</t>
+  </si>
+  <si>
+    <t>efficiency_grinding</t>
+  </si>
+  <si>
+    <t>water_usage_grinding</t>
+  </si>
+  <si>
+    <t>waste_grinding_ratio</t>
+  </si>
+  <si>
+    <t>sodiumhydroxide_solution</t>
+  </si>
+  <si>
+    <t>calciumchloride_solution</t>
+  </si>
+  <si>
+    <t>sulfuricacid_solution</t>
+  </si>
+  <si>
+    <t>quicklime_reaction_factor</t>
+  </si>
+  <si>
+    <t>sodiumhydroxide_reaction_factor</t>
+  </si>
+  <si>
+    <t>sodaash_reaction_factor</t>
+  </si>
+  <si>
+    <t>evaporator_gor</t>
+  </si>
+  <si>
+    <t>working_hours_excavator</t>
+  </si>
+  <si>
+    <t>elec_IX_factor</t>
+  </si>
+  <si>
+    <t>water_IX_factor</t>
+  </si>
+  <si>
+    <t>HCl_IX_factor</t>
+  </si>
+  <si>
+    <t>NaOH_IX_factor</t>
+  </si>
+  <si>
+    <t>heat_IX_factor</t>
+  </si>
+  <si>
+    <t>Cl_IX_factor</t>
+  </si>
+  <si>
+    <t>Na_IX_factor</t>
+  </si>
+  <si>
+    <t>elec_nano_factor</t>
+  </si>
+  <si>
+    <t>elec_osmosis_factor</t>
+  </si>
+  <si>
+    <t>E_evap_factor</t>
+  </si>
+  <si>
+    <t>elec_evap_factor</t>
+  </si>
+  <si>
+    <t>evaporator_steam_factor</t>
+  </si>
+  <si>
+    <t>beltfilter_electricity</t>
+  </si>
+  <si>
+    <t>rotarydryer_heat</t>
+  </si>
+  <si>
+    <t>rotarydryer_electricity</t>
+  </si>
+  <si>
+    <t>rotarydryer_waste_heat</t>
+  </si>
+  <si>
+    <t>water_adsorption_factor</t>
+  </si>
+  <si>
+    <t>electricity_adsorption</t>
+  </si>
+  <si>
+    <t>centrifuge_electricity</t>
+  </si>
+  <si>
+    <t>water_purification_elec_factor</t>
+  </si>
+  <si>
     <t>proxy_freshwater_EP</t>
   </si>
   <si>
@@ -209,103 +338,28 @@
     <t>proxy_quicklime_OLAROZ</t>
   </si>
   <si>
-    <t>pH_ini</t>
-  </si>
-  <si>
-    <t>pOH_ini</t>
-  </si>
-  <si>
-    <t>pH_aft</t>
-  </si>
-  <si>
-    <t>pOH_aft</t>
-  </si>
-  <si>
-    <t>recycling_rate</t>
-  </si>
-  <si>
-    <t>sodiumhydroxide_solution</t>
-  </si>
-  <si>
-    <t>sodaash_solution</t>
-  </si>
-  <si>
-    <t>calciumchloride_solution</t>
-  </si>
-  <si>
-    <t>sulfuricacid_solution</t>
-  </si>
-  <si>
-    <t>Mg_conc_pulp_quicklime</t>
-  </si>
-  <si>
-    <t>quicklime_reaction_factor</t>
-  </si>
-  <si>
-    <t>sodiumhydroxide_reaction_factor</t>
-  </si>
-  <si>
-    <t>sodaash_reaction_factor</t>
+    <t>proxy_salt_carbonate_ratio</t>
+  </si>
+  <si>
+    <t>proxy_moisture_precipitated_salt</t>
+  </si>
+  <si>
+    <t>water_coverage_evaporationponds</t>
   </si>
   <si>
     <t>waste_ratio</t>
   </si>
   <si>
-    <t>evaporator_gor</t>
-  </si>
-  <si>
-    <t>working_hours_excavator</t>
-  </si>
-  <si>
-    <t>Ca_left_over</t>
-  </si>
-  <si>
-    <t>elec_IX_factor</t>
-  </si>
-  <si>
-    <t>water_IX_factor</t>
-  </si>
-  <si>
-    <t>HCl_IX_factor</t>
-  </si>
-  <si>
-    <t>NaOH_IX_factor</t>
-  </si>
-  <si>
-    <t>heat_IX_factor</t>
-  </si>
-  <si>
-    <t>Cl_IX_factor</t>
-  </si>
-  <si>
-    <t>Na_IX_factor</t>
-  </si>
-  <si>
-    <t>motherliq_factor</t>
-  </si>
-  <si>
-    <t>elec_nano_factor</t>
-  </si>
-  <si>
     <t>m_output_factor</t>
   </si>
   <si>
-    <t>elec_osmosis_factor</t>
-  </si>
-  <si>
-    <t>E_evap_factor</t>
-  </si>
-  <si>
-    <t>elec_evap_factor</t>
-  </si>
-  <si>
-    <t>evaporator_steam_factor</t>
-  </si>
-  <si>
-    <t>CO2_factor</t>
-  </si>
-  <si>
-    <t>washing_factor</t>
+    <t>salinity_ED</t>
+  </si>
+  <si>
+    <t>removal_fraction_ED</t>
+  </si>
+  <si>
+    <t>washing_general_waste_ratio</t>
   </si>
   <si>
     <t>centrifuge_TG_prod_factor</t>
@@ -329,82 +383,34 @@
     <t>centrifuge_wash_waste_liquid_factor</t>
   </si>
   <si>
-    <t>centrifuge_electricity</t>
-  </si>
-  <si>
-    <t>beltfilter_electricity</t>
-  </si>
-  <si>
-    <t>rotarydryer_heat</t>
-  </si>
-  <si>
-    <t>rotarydryer_electricity</t>
-  </si>
-  <si>
-    <t>rotarydryer_waste_heat</t>
-  </si>
-  <si>
     <t>water_purification_waste_factor</t>
   </si>
   <si>
     <t>water_purification_new_factor</t>
   </si>
   <si>
-    <t>water_purification_elec_factor</t>
-  </si>
-  <si>
-    <t>water_adsorption_factor</t>
-  </si>
-  <si>
-    <t>electricity_adsorption</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
     <t>Range</t>
   </si>
   <si>
-    <t>adsorp_capacity_salar</t>
-  </si>
-  <si>
-    <t>[0.03, 0.04, 0.05, 0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>[40, 60, 80, 90]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.6, 0.9]</t>
-  </si>
-  <si>
-    <t>[50, 75, 100]</t>
-  </si>
-  <si>
-    <t>[5, 15, 50]</t>
-  </si>
-  <si>
-    <t>[20, 40, 80]</t>
-  </si>
-  <si>
-    <t>[60, 70, 80, 90]</t>
-  </si>
-  <si>
-    <t>[30, 40, 50, 90]</t>
-  </si>
-  <si>
-    <t>[40, 50, 60, 70, 80, 90]</t>
+    <t>[0.0052, 0.0208, 0.0312, 0.052, 0.07279999999999999, 0.0832, 0.09879999999999999]</t>
+  </si>
+  <si>
+    <t>[20, 40, 60, 80, 90]</t>
   </si>
   <si>
     <t>[5, 15, 35]</t>
   </si>
   <si>
-    <t>[30, 50, 70, 90]</t>
-  </si>
-  <si>
-    <t>[0.005, 0.008, 0.01, 0.03, 0.6, 1.0]</t>
-  </si>
-  <si>
-    <t>[5000, 10000, 15000]</t>
+    <t>[5, 10, 20]</t>
+  </si>
+  <si>
+    <t>[50, 60, 70, 80, 90]</t>
+  </si>
+  <si>
+    <t>[60, 70, 80, 90, 100]</t>
   </si>
   <si>
     <t>[2500, 5000, 7500, 10000]</t>
@@ -416,133 +422,190 @@
     <t>[20000, 25000, 30000, 35000, 40000]</t>
   </si>
   <si>
-    <t>[1.8, 2.0, 2.2, 2.4, 2.6]</t>
-  </si>
-  <si>
-    <t>[0.9, 0.95, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.002, 0.003, 0.004, 0.005]</t>
-  </si>
-  <si>
-    <t>[5e-05, 6e-05, 7e-05, 8e-05]</t>
-  </si>
-  <si>
-    <t>[5.0, 6.0, 7.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[1000000000, 1050000000, 1100000000, 1150000000]</t>
-  </si>
-  <si>
-    <t>[50000000, 51000000, 52000000, 53000000, 54000000]</t>
-  </si>
-  <si>
-    <t>[8, 9, 10, 11, 12, 13]</t>
-  </si>
-  <si>
-    <t>[2.0, 3.0, 4.0, 5.0]</t>
-  </si>
-  <si>
-    <t>[0.7, 0.8, 0.9, 0.99]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.3, 0.4, 0.5]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.3, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.18, 0.21, 0.24]</t>
-  </si>
-  <si>
-    <t>[0.04, 0.05, 0.06, 0.07]</t>
-  </si>
-  <si>
-    <t>[1.0, 1.1, 1.2, 1.3, 1.4]</t>
-  </si>
-  <si>
-    <t>[15, 16, 17, 18, 19]</t>
-  </si>
-  <si>
-    <t>[20, 30, 37, 40, 50]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.3, 0.5, 0.7, 0.9]</t>
-  </si>
-  <si>
-    <t>[0.0001, 0.0002, 0.0003, 0.0004, 0.0005]</t>
-  </si>
-  <si>
-    <t>[3, 4, 5, 6, 7]</t>
-  </si>
-  <si>
-    <t>[0.00041, 0.00082, 0.00164, 0.00246, 0.00328]</t>
-  </si>
-  <si>
-    <t>[0.55, 1.1, 2.2, 3.3, 4.4]</t>
-  </si>
-  <si>
-    <t>[0.00012, 0.00024, 0.00048, 0.0007199999999999999, 0.00096]</t>
-  </si>
-  <si>
-    <t>[6e-05, 0.00012, 0.00024, 0.00035999999999999997, 0.00048]</t>
-  </si>
-  <si>
-    <t>[-0.0008100000000000001, -0.0016200000000000001, -0.0032400000000000003, -0.004860000000000001, -0.0064800000000000005]</t>
-  </si>
-  <si>
-    <t>[-0.000115, -0.00023, -0.00046, -0.00069, -0.00092]</t>
-  </si>
-  <si>
-    <t>[-3.5000000000000004e-05, -7.000000000000001e-05, -0.00014000000000000001, -0.00021, -0.00028000000000000003]</t>
-  </si>
-  <si>
-    <t>[4.126984126984127, 8.253968253968255, 16.50793650793651]</t>
-  </si>
-  <si>
-    <t>[0.025, 0.05, 0.1]</t>
-  </si>
-  <si>
-    <t>[1.3915, 2.783, 5.566, 8.349, 11.132]</t>
-  </si>
-  <si>
-    <t>[72.5, 145.0, 290.0, 435.0, 580.0]</t>
-  </si>
-  <si>
-    <t>[1.0, 2.0, 4.0, 6.0, 8.0]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.2, 0.4, 0.6, 0.8]</t>
-  </si>
-  <si>
-    <t>[5.0, 10.0, 20.0]</t>
-  </si>
-  <si>
-    <t>[1, 2, 4, 6, 8]</t>
-  </si>
-  <si>
-    <t>[0.005, 0.01, 0.02, 0.03, 0.04]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.4, 0.6, 0.8, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.3, 0.6, 0.9, 1.2, 2]</t>
-  </si>
-  <si>
-    <t>[0.5, 1, 2, 3, 4]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.5, 1, 1.5, 2]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.5, 0.75, 1]</t>
-  </si>
-  <si>
-    <t>[10, 50, 100, 400, 600]</t>
-  </si>
-  <si>
-    <t>[0.000147747478, 0.00073873739, 0.0022162121700000006]</t>
+    <t>[14, 12, 11, 10, 9, 8]</t>
+  </si>
+  <si>
+    <t>[1.8, 3, 4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0.005000000000000001, 0.020000000000000004, 0.03, 0.05, 0.06999999999999999, 0.08000000000000002, 0.095]</t>
+  </si>
+  <si>
+    <t>[2e-05, 8e-05, 0.00012, 0.0002, 0.00028, 0.00032, 0.00038]</t>
+  </si>
+  <si>
+    <t>[0.5, 2.0, 3.0, 5, 7.0, 8.0, 9.5]</t>
+  </si>
+  <si>
+    <t>[1.0, 4.0, 6.0, 10.0, 14.0, 16.0, 19.0]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.8, 1.2, 2, 2.8, 3.2, 3.8]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.3]</t>
+  </si>
+  <si>
+    <t>[20, 30, 40, 50, 60]</t>
+  </si>
+  <si>
+    <t>[65, 75, 85, 95]</t>
+  </si>
+  <si>
+    <t>[25, 35, 45, 55, 65]</t>
+  </si>
+  <si>
+    <t>[1000.0, 4000.0, 6000.0, 10000, 14000.0, 16000.0, 19000.0]</t>
+  </si>
+  <si>
+    <t>[5, 15, 25, 35, 45]</t>
+  </si>
+  <si>
+    <t>[0.0591, 0.01922, 0.0326, 0.012, 0.0069, 0.00974, 0.01332, 0.02835, 0.02933, 0.0311, 0.01135, 0.0155, 0.0114]</t>
+  </si>
+  <si>
+    <t>[0.22999999999999998, 0.9199999999999999, 1.38, 2.3, 3.2199999999999998, 3.6799999999999997, 4.369999999999999]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.95]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.85]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.985]</t>
+  </si>
+  <si>
+    <t>[1.3, 5.2, 7.8, 13, 18.2, 20.8, 24.7]</t>
+  </si>
+  <si>
+    <t>[100.0, 400.0, 600.0, 1000, 1400.0, 1600.0, 1900.0]</t>
+  </si>
+  <si>
+    <t>[7.5, 30.0, 45.0, 75, 105.0, 120.0, 142.5]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.8]</t>
+  </si>
+  <si>
+    <t>[0.15000000000000002, 0.6000000000000001, 0.8999999999999999, 1.5, 2.0999999999999996, 2.4000000000000004, 2.8499999999999996]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.18]</t>
+  </si>
+  <si>
+    <t>[0.12, 0.48, 0.72, 1.2, 1.68, 1.92, 2.28]</t>
+  </si>
+  <si>
+    <t>[0.13, 0.52, 0.78, 1.3, 1.8199999999999998, 2.08, 2.4699999999999998]</t>
+  </si>
+  <si>
+    <t>[1.6, 6.4, 9.6, 16, 22.4, 25.6, 30.4]</t>
+  </si>
+  <si>
+    <t>[3.7, 14.8, 22.2, 37, 51.8, 59.2, 70.3]</t>
+  </si>
+  <si>
+    <t>[8.2e-05, 0.000328, 0.0004919999999999999, 0.00082, 0.001148, 0.001312, 0.001558]</t>
+  </si>
+  <si>
+    <t>[0.11000000000000001, 0.44000000000000006, 0.66, 1.1, 1.54, 1.7600000000000002, 2.09]</t>
+  </si>
+  <si>
+    <t>[2.4e-05, 9.6e-05, 0.000144, 0.00024, 0.000336, 0.000384, 0.00045599999999999997]</t>
+  </si>
+  <si>
+    <t>[1.2e-05, 4.8e-05, 7.2e-05, 0.00012, 0.000168, 0.000192, 0.00022799999999999999]</t>
+  </si>
+  <si>
+    <t>[-0.00016200000000000003, -0.0006480000000000001, -0.000972, -0.0016200000000000001, -0.002268, -0.0025920000000000006, -0.003078]</t>
+  </si>
+  <si>
+    <t>[-2.3000000000000003e-05, -9.200000000000001e-05, -0.000138, -0.00023, -0.00032199999999999997, -0.00036800000000000005, -0.000437]</t>
+  </si>
+  <si>
+    <t>[-7.000000000000001e-06, -2.8000000000000003e-05, -4.2000000000000004e-05, -7.000000000000001e-05, -9.800000000000001e-05, -0.00011200000000000001, -0.000133]</t>
+  </si>
+  <si>
+    <t>[0.8253968253968256, 3.3015873015873023, 4.9523809523809526, 8.253968253968255, 11.555555555555555, 13.20634920634921, 15.682539682539684]</t>
+  </si>
+  <si>
+    <t>[0.2783, 1.1132, 1.6698, 2.783, 3.8961999999999994, 4.4528, 5.287699999999999]</t>
+  </si>
+  <si>
+    <t>[14.5, 58.0, 87.0, 145, 203.0, 232.0, 275.5]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.04000000000000001, 0.16000000000000003, 0.24, 0.4, 0.5599999999999999, 0.6400000000000001, 0.76]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.12, 0.18, 0.3, 0.42, 0.48, 0.57]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.4, 0.6, 1, 1.4, 1.6, 1.9]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.5]</t>
+  </si>
+  <si>
+    <t>[10.0, 40.0, 60.0, 100, 140.0, 160.0, 190.0]</t>
+  </si>
+  <si>
+    <t>[7.3873739e-05, 0.000295494956, 0.000443242434, 0.00073873739, 0.0010342323459999999, 0.001181979824, 0.001403601041]</t>
+  </si>
+  <si>
+    <t>[0.002, 0.005, 0.01, 0.02, 0.03]</t>
+  </si>
+  <si>
+    <t>[0.000545378352853109, 0.0013634458821327724, 0.002726891764265545, 0.00545378352853109, 0.008180675292796634]</t>
+  </si>
+  <si>
+    <t>[1.7131511242334727e-05, 4.282877810583682e-05, 8.565755621167364e-05, 0.00017131511242334728, 0.0002569726686350209]</t>
+  </si>
+  <si>
+    <t>[8.0, 20.0, 40, 80, 120]</t>
+  </si>
+  <si>
+    <t>[211709802.0, 529274505.0, 1058549010, 2117098020, 3175647030]</t>
+  </si>
+  <si>
+    <t>[0.008131513022282114, 0.020328782555705284, 0.04065756511141057, 0.08131513022282114, 0.1219726953342317]</t>
+  </si>
+  <si>
+    <t>[0.03, 0.075, 0.15, 0.3, 0.44999999999999996]</t>
+  </si>
+  <si>
+    <t>[0.020000000000000004, 0.05, 0.1, 0.2, 0.30000000000000004]</t>
+  </si>
+  <si>
+    <t>[0.010000000000000002, 0.025, 0.05, 0.1, 0.15000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.5, 1, 2, 3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3, 0.5, 0.7, 0.9, 1, 0.9]</t>
+  </si>
+  <si>
+    <t>[0.30000000000000004, 0.75, 1.5, 3.0, 4.5]</t>
+  </si>
+  <si>
+    <t>[-0.1, -0.3, -0.5, -0.7, -0.9, -1, -0.8]</t>
+  </si>
+  <si>
+    <t>[0.04000000000000001, 0.1, 0.2, 0.4, 0.6000000000000001]</t>
+  </si>
+  <si>
+    <t>[-0.1, -0.3, -0.5, -0.7, -0.9, -1, -1]</t>
   </si>
 </sst>
 </file>
@@ -900,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1215,7 +1278,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1231,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1239,7 +1302,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1247,7 +1310,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1255,7 +1318,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>85</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1263,7 +1326,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1271,7 +1334,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1279,7 +1342,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>80</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1287,7 +1350,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1295,7 +1358,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>70</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1303,7 +1366,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.008</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1311,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.024</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1319,7 +1382,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>10000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1327,7 +1390,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>5000</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1335,7 +1398,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1343,7 +1406,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>30000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1351,7 +1414,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1359,7 +1422,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1367,7 +1430,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.85</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1375,7 +1438,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.002726891764265545</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1383,7 +1446,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>8.565755621167364E-05</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1391,7 +1454,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1399,7 +1462,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1058549010</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1407,7 +1470,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.04065756511141057</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1415,7 +1478,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1423,7 +1486,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1431,7 +1494,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1439,7 +1502,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>12.2</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1447,7 +1510,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1455,7 +1518,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1463,7 +1526,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1471,7 +1534,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1479,7 +1542,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.18</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1487,7 +1550,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1495,7 +1558,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1503,7 +1566,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1511,7 +1574,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1.3</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1519,7 +1582,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1527,7 +1590,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1535,7 +1598,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1543,7 +1606,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.0002</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1551,7 +1614,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.00082</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1559,7 +1622,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>1.1</v>
+        <v>0.00082</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1567,7 +1630,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.00024</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1575,7 +1638,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.00012</v>
+        <v>0.00024</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1583,7 +1646,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>-0.00162</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1591,7 +1654,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>-0.00023</v>
+        <v>-0.00162</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1599,7 +1662,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>-7.000000000000001E-05</v>
+        <v>-0.00023</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1607,7 +1670,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>-7.000000000000001E-05</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1623,7 +1686,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.05</v>
+        <v>2.783</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1631,7 +1694,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2.783</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1639,7 +1702,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>145</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1647,7 +1710,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1655,7 +1718,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1663,7 +1726,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1671,7 +1734,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1679,7 +1742,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1687,7 +1750,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>-0.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1695,7 +1758,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.2</v>
+        <v>0.00073873739</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1703,7 +1766,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>1.5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1711,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>-1</v>
+        <v>2.783</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1719,7 +1782,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>1.5</v>
+        <v>0.002726891764265545</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1727,7 +1790,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>-1</v>
+        <v>8.565755621167364E-05</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1735,7 +1798,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.01</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1743,7 +1806,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>0.4</v>
+        <v>1058549010</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1751,7 +1814,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>0.3</v>
+        <v>0.04065756511141057</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1759,7 +1822,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1767,7 +1830,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1775,7 +1838,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1783,7 +1846,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1791,7 +1854,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>2.783</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1799,7 +1862,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1807,7 +1870,87 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>0.00073873739</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1960,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1825,10 +1968,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1836,7 +1979,7 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1844,167 +1987,167 @@
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2012,7 +2155,7 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2020,7 +2163,7 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2028,7 +2171,7 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2036,7 +2179,7 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2044,7 +2187,7 @@
         <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2052,103 +2195,103 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2156,223 +2299,351 @@
         <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>113</v>
       </c>
-      <c r="B69" t="s">
-        <v>175</v>
+      <c r="B77" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
